--- a/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
+++ b/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
@@ -341,7 +341,7 @@
 </t>
   </si>
   <si>
-    <t>Recorder as a related person</t>
+    <t>Related person that recorded the sensitivity</t>
   </si>
   <si>
     <t>Reference to related person that recorded the record and takes responsibility for its content.</t>
@@ -716,7 +716,7 @@
   </si>
   <si>
     <t>dateTime
-AgePeriodRangestring</t>
+AgePeriodRange</t>
   </si>
   <si>
     <t>When allergy or intolerance was identified</t>

--- a/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
+++ b/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="287">
   <si>
     <t>Path</t>
   </si>
@@ -157,7 +157,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus='entered-in-error' or clinicalStatus.exists()}ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus!='entered-in-error' or clinicalStatus.empty()}inv-ait-0:Recorder and recorder related party shall not coexist {(extension('http://hl7.org.au/fhir/StructureDefinition/recorder-related-person').exists() and recorder.exists()).not()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus='entered-in-error' or clinicalStatus.exists()}ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus!='entered-in-error' or clinicalStatus.empty()}inv-ait-0:Recorder and author related party shall not coexist {(extension('http://hl7.org.au/fhir/StructureDefinition/author-related-person').exists() and recorder.exists()).not()}</t>
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
@@ -337,14 +337,14 @@
     <t>recorderRelatedPerson</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/recorder-related-person}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/author-related-person}
 </t>
   </si>
   <si>
     <t>Related person that recorded the sensitivity</t>
   </si>
   <si>
-    <t>Reference to related person that recorded the record and takes responsibility for its content.</t>
+    <t>Reference to related person that authored the resource and takes responsibility for its content.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -559,13 +559,13 @@
 The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Type of the substance/product, allergy or intolerance condition, or negation/exclusion codes for reporting no known allergies.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Preferred SNOMED-CT coding for type of the substance/product, allergy or intolerance condition, or negation/exclusion codes for reporting no known allergies.</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/indicator-hypersensitivity-intolerance-to-substance-1</t>
   </si>
   <si>
     <t>substance/product:@@ -587,7 +587,180 @@
     <t>AL1-3 / IAM-3</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.id</t>
+    <t>AllergyIntolerance.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+</t>
+  </si>
+  <si>
+    <t>Who the sensitivity is for</t>
+  </si>
+  <si>
+    <t>The patient who has the allergy or intolerance.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>(PID-3)</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.onset[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+AgePeriodRange</t>
+  </si>
+  <si>
+    <t>When allergy or intolerance was identified</t>
+  </si>
+  <si>
+    <t>Estimated or actual date,  date-time, or age when allergy or intolerance was identified.</t>
+  </si>
+  <si>
+    <t>effectiveTime.low</t>
+  </si>
+  <si>
+    <t>when.init</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.assertedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date record was believed accurate</t>
+  </si>
+  <si>
+    <t>The date on which the existance of the AllergyIntolerance was first asserted or acknowledged.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>IAM-20</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
+</t>
+  </si>
+  <si>
+    <t>Who recorded the sensitivity</t>
+  </si>
+  <si>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>who.author</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.asserter</t>
+  </si>
+  <si>
+    <t>Source
+Informant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner)
+</t>
+  </si>
+  <si>
+    <t>Source of the information about the allergy</t>
+  </si>
+  <si>
+    <t>The source of the information about the allergy that is recorded.</t>
+  </si>
+  <si>
+    <t>The recorder takes repsonsibility for the content, but can reference the source from where they got it.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role</t>
+  </si>
+  <si>
+    <t>who.source</t>
+  </si>
+  <si>
+    <t>IAM-14 (if patient) / IAM-18 (if practitioner)</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.lastOccurrence</t>
+  </si>
+  <si>
+    <t>Date(/time) of last known occurrence of a reaction</t>
+  </si>
+  <si>
+    <t>Represents the date and/or time of the last known occurrence of a reaction event.</t>
+  </si>
+  <si>
+    <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the Comment element should be used.</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)].effectiveTime</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional text not captured in other fields</t>
+  </si>
+  <si>
+    <t>Additional narrative about the propensity for the Adverse Reaction, not captured in other fields.</t>
+  </si>
+  <si>
+    <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Reaction details</t>
+  </si>
+  <si>
+    <t>Details about each adverse reaction event linked to exposure to the identified substance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)]</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -606,7 +779,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.extension</t>
+    <t>AllergyIntolerance.reaction.extension</t>
   </si>
   <si>
     <t>Additional Content defined by implementations</t>
@@ -615,254 +788,7 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>snomedAllergyCode</t>
-  </si>
-  <si>
-    <t>Allergy or Intolerance to Substance (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/indicator-hypersensitivity-intolerance-to-substance-1</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
-</t>
-  </si>
-  <si>
-    <t>Who the sensitivity is for</t>
-  </si>
-  <si>
-    <t>The patient who has the allergy or intolerance.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>(PID-3)</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.onset[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-AgePeriodRange</t>
-  </si>
-  <si>
-    <t>When allergy or intolerance was identified</t>
-  </si>
-  <si>
-    <t>Estimated or actual date,  date-time, or age when allergy or intolerance was identified.</t>
-  </si>
-  <si>
-    <t>effectiveTime.low</t>
-  </si>
-  <si>
-    <t>when.init</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.assertedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date record was believed accurate</t>
-  </si>
-  <si>
-    <t>The date on which the existance of the AllergyIntolerance was first asserted or acknowledged.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>IAM-20</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
-</t>
-  </si>
-  <si>
-    <t>Who recorded the sensitivity</t>
-  </si>
-  <si>
-    <t>Individual who recorded the record and takes responsibility for its content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>who.author</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.asserter</t>
-  </si>
-  <si>
-    <t>Source
-Informant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner)
-</t>
-  </si>
-  <si>
-    <t>Source of the information about the allergy</t>
-  </si>
-  <si>
-    <t>The source of the information about the allergy that is recorded.</t>
-  </si>
-  <si>
-    <t>The recorder takes repsonsibility for the content, but can reference the source from where they got it.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role</t>
-  </si>
-  <si>
-    <t>who.source</t>
-  </si>
-  <si>
-    <t>IAM-14 (if patient) / IAM-18 (if practitioner)</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.lastOccurrence</t>
-  </si>
-  <si>
-    <t>Date(/time) of last known occurrence of a reaction</t>
-  </si>
-  <si>
-    <t>Represents the date and/or time of the last known occurrence of a reaction event.</t>
-  </si>
-  <si>
-    <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the Comment element should be used.</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)].effectiveTime</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Additional text not captured in other fields</t>
-  </si>
-  <si>
-    <t>Additional narrative about the propensity for the Adverse Reaction, not captured in other fields.</t>
-  </si>
-  <si>
-    <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Adverse Reaction Events linked to exposure to substance</t>
-  </si>
-  <si>
-    <t>Details about each adverse reaction event linked to exposure to the identified substance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)]</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.extension</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.modifierExtension</t>
@@ -890,34 +816,13 @@
     <t>Coding of the specific substance (or pharmaceutical product) with a terminology capable of triggering decision support should be used wherever possible.  The 'code' element allows for the use of a specific substance or pharmaceutical product, or a group or class of substances. In the case of an allergy or intolerance to a class of substances, (for example, "penicillins"), the 'reaction.substance' element could be used to code the specific substance that was identifed as having caused the reaction (for example, "amoxycillin"). Duplication of the value in the 'code' and 'reaction.substance' elements is acceptable when a specific substance has been recorded in 'code'.</t>
   </si>
   <si>
-    <t>Codes defining the type of the substance (including pharmaceutical products).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-code</t>
+    <t>Preferred SNOMED-CT coding defining the type of the substance (including pharmaceutical products).</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/adverse-reaction-agent-1</t>
   </si>
   <si>
     <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].participation[typeCode=CSM].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.substance.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.substance.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.substance.coding</t>
-  </si>
-  <si>
-    <t>snomedSubstance</t>
-  </si>
-  <si>
-    <t>Substance or Agent (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/adverse-reaction-agent-1</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.substance.text</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation</t>
@@ -936,34 +841,13 @@
     <t>Manifestation can be expressed as a single word, phrase or brief description. For example: nausea, rash or no reaction. It is preferable that manifestation should be coded with a terminology, where possible. The values entered here may be used to display on an application screen as part of a list of adverse reactions, as recommended in the UK NHS CUI guidelines.  Terminologies commonly used include, but are not limited to, SNOMED CT or ICD10.</t>
   </si>
   <si>
-    <t>Clinical symptoms and/or signs that are observed or associated with an Adverse Reaction Event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>Preferred SNOMED-CT coding of clinical symptoms and/or signs that are observed or associated with an Adverse Reaction Event.</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
   </si>
   <si>
     <t>AL1-5</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding</t>
-  </si>
-  <si>
-    <t>snomedManifestation</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.text</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.description</t>
@@ -1025,6 +909,9 @@
   </si>
   <si>
     <t>Coding of the route of exposure with a terminology should be used wherever possible.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
@@ -1194,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1203,7 +1090,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.65234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.24609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.78125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1226,11 +1113,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.87890625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="143.5234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="93.69921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="39.515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1240,7 +1127,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.9296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2232,7 +2119,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>51</v>
@@ -3187,38 +3074,38 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3269,10 +3156,10 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3287,29 +3174,29 @@
         <v>181</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
@@ -3318,17 +3205,15 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3365,25 +3250,25 @@
         <v>42</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
@@ -3392,10 +3277,10 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3403,7 +3288,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3414,7 +3299,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3423,23 +3308,19 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3475,49 +3356,49 @@
         <v>42</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>196</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B22" t="s" s="2">
         <v>197</v>
       </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3527,29 +3408,25 @@
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3573,11 +3450,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3595,13 +3474,13 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>42</v>
@@ -3610,22 +3489,22 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>196</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3644,20 +3523,18 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3705,7 +3582,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3720,49 +3597,51 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3811,10 +3690,10 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>50</v>
@@ -3826,18 +3705,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3848,7 +3727,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>51</v>
@@ -3860,15 +3739,17 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -3917,13 +3798,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -3932,18 +3813,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3954,10 +3835,10 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>42</v>
@@ -3966,13 +3847,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4023,37 +3904,37 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>228</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4063,7 +3944,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>
@@ -4129,7 +4010,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4144,10 +4025,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4159,14 +4040,14 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4175,19 +4056,19 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4237,13 +4118,13 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
@@ -4252,50 +4133,50 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4345,13 +4226,13 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
@@ -4360,7 +4241,7 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>42</v>
@@ -4371,7 +4252,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4382,7 +4263,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>51</v>
@@ -4394,16 +4275,16 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4429,13 +4310,13 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4453,22 +4334,22 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4479,15 +4360,15 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>41</v>
@@ -4502,15 +4383,17 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4535,13 +4418,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4559,10 +4442,10 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>41</v>
@@ -4571,25 +4454,25 @@
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4608,15 +4491,17 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4665,7 +4550,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4680,7 +4565,7 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4691,18 +4576,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -4714,17 +4599,15 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4773,13 +4656,13 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
@@ -4788,50 +4671,50 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>42</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4857,13 +4740,13 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -4881,13 +4764,13 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
@@ -4896,7 +4779,7 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>42</v>
@@ -4905,9 +4788,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4921,7 +4804,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>42</v>
@@ -4933,13 +4816,13 @@
         <v>166</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4965,13 +4848,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -4989,7 +4872,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5004,7 +4887,7 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -5015,7 +4898,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5026,7 +4909,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5038,15 +4921,17 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5095,13 +4980,13 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
@@ -5110,1641 +4995,17 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AB38" s="2"/>
-      <c r="AC38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X39" s="2"/>
-      <c r="Y39" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AB44" s="2"/>
-      <c r="AC44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X45" s="2"/>
-      <c r="Y45" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL51" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL51">
+  <autoFilter ref="A1:AL36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6754,7 +5015,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
+++ b/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
@@ -352,7 +352,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-02:A related person shall conform to Base RelatedPerson {AllergyIntolerance.extension('http://hl7.org.au/fhir/StructureDefinition/recorder-related-person').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-02:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
   </si>
   <si>
     <t>AllergyIntolerance.modifierExtension</t>

--- a/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
+++ b/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="288">
   <si>
     <t>Path</t>
   </si>
@@ -602,6 +602,10 @@
   </si>
   <si>
     <t>The patient who has the allergy or intolerance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-dh-ait-01:The patient shall at least have a reference or an identifier {reference.exists() or identifier.exists()}
+</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
@@ -3168,21 +3172,21 @@
         <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3205,13 +3209,13 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3262,7 +3266,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3277,10 +3281,10 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3288,7 +3292,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3311,13 +3315,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3368,7 +3372,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3383,22 +3387,22 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3417,13 +3421,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3474,7 +3478,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3489,10 +3493,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3500,11 +3504,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3523,16 +3527,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3582,7 +3586,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3597,18 +3601,18 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3631,16 +3635,16 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3690,7 +3694,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3705,7 +3709,7 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>42</v>
@@ -3716,7 +3720,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3739,16 +3743,16 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3798,7 +3802,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3813,7 +3817,7 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -3824,7 +3828,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3847,13 +3851,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3904,7 +3908,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3916,10 +3920,10 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
@@ -3930,7 +3934,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3953,13 +3957,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4010,7 +4014,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4025,7 +4029,7 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>42</v>
@@ -4036,7 +4040,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4062,10 +4066,10 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>111</v>
@@ -4118,7 +4122,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4133,7 +4137,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -4144,11 +4148,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4173,7 +4177,7 @@
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>111</v>
@@ -4226,7 +4230,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4252,7 +4256,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4278,13 +4282,13 @@
         <v>166</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4313,10 +4317,10 @@
         <v>170</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4334,7 +4338,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4349,7 +4353,7 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4360,11 +4364,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4386,13 +4390,13 @@
         <v>166</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4421,10 +4425,10 @@
         <v>170</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4442,7 +4446,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>50</v>
@@ -4463,16 +4467,16 @@
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4491,16 +4495,16 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4550,7 +4554,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4565,7 +4569,7 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4576,7 +4580,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4599,13 +4603,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4656,7 +4660,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4671,18 +4675,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4708,13 +4712,13 @@
         <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4743,10 +4747,10 @@
         <v>123</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -4764,7 +4768,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4790,7 +4794,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4816,13 +4820,13 @@
         <v>166</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4848,13 +4852,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -4872,7 +4876,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4887,7 +4891,7 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -4898,7 +4902,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4921,16 +4925,16 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4980,7 +4984,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4995,7 +4999,7 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>42</v>

--- a/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
+++ b/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="287">
   <si>
     <t>Path</t>
   </si>
@@ -157,7 +157,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus='entered-in-error' or clinicalStatus.exists()}ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus!='entered-in-error' or clinicalStatus.empty()}inv-ait-0:Recorder and author related party shall not coexist {(extension('http://hl7.org.au/fhir/StructureDefinition/author-related-person').exists() and recorder.exists()).not()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus='entered-in-error' or clinicalStatus.exists()}ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus!='entered-in-error' or clinicalStatus.empty()}inv-ait-0:Recorder and author related party shall not coexist {(extension('http://hl7.org.au/fhir/StructureDefinition/author-related-person').exists() and recorder.exists()).not()}inv-dh-ait-03:If present, a recorder related person shall at least have a reference, an identifier or a display {extension('http://hl7.org.au/fhir/StructureDefinition/author-related-person').exists() implies extension.valueReference.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-ait-01:The patient shall at least have a reference or an identifier with at least a system and a value {patient.reference.exists() or patient.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-ait-02:If present, a recorder shall at least have a reference, an identifier or a display {recorder.exists() implies recorder.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
@@ -352,7 +352,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-02:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-04:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
   </si>
   <si>
     <t>AllergyIntolerance.modifierExtension</t>
@@ -602,10 +602,6 @@
   </si>
   <si>
     <t>The patient who has the allergy or intolerance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-dh-ait-01:The patient shall at least have a reference or an identifier {reference.exists() or identifier.exists()}
-</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
@@ -2123,7 +2119,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>51</v>
@@ -3172,21 +3168,21 @@
         <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3209,13 +3205,13 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3266,7 +3262,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3281,10 +3277,10 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3292,7 +3288,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3315,13 +3311,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3372,7 +3368,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3387,22 +3383,22 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3421,13 +3417,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3478,7 +3474,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3493,10 +3489,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3504,11 +3500,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3527,16 +3523,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3586,7 +3582,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3601,18 +3597,18 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3635,16 +3631,16 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3694,7 +3690,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3709,7 +3705,7 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>42</v>
@@ -3720,7 +3716,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3743,16 +3739,16 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3802,7 +3798,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3817,7 +3813,7 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -3828,7 +3824,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3851,13 +3847,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3908,7 +3904,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3920,10 +3916,10 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
@@ -3934,7 +3930,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3957,13 +3953,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4014,22 +4010,22 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>42</v>
@@ -4040,7 +4036,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4066,10 +4062,10 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>111</v>
@@ -4122,7 +4118,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4137,7 +4133,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -4148,11 +4144,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4177,7 +4173,7 @@
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>111</v>
@@ -4230,7 +4226,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4256,7 +4252,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4282,13 +4278,13 @@
         <v>166</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4317,43 +4313,43 @@
         <v>170</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4364,11 +4360,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4390,13 +4386,13 @@
         <v>166</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4425,11 +4421,11 @@
         <v>170</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4446,7 +4442,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>50</v>
@@ -4467,16 +4463,16 @@
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4495,16 +4491,16 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4554,7 +4550,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4569,7 +4565,7 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4580,7 +4576,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4603,13 +4599,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4660,7 +4656,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4675,18 +4671,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4712,13 +4708,13 @@
         <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4747,11 +4743,11 @@
         <v>123</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4768,7 +4764,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4794,7 +4790,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4820,13 +4816,13 @@
         <v>166</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4852,46 +4848,46 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -4902,7 +4898,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4925,16 +4921,16 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4984,7 +4980,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4999,7 +4995,7 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>42</v>

--- a/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
+++ b/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
@@ -341,7 +341,7 @@
 </t>
   </si>
   <si>
-    <t>Related person that recorded the sensitivity</t>
+    <t>Related person that authored the resource</t>
   </si>
   <si>
     <t>Reference to related person that authored the resource and takes responsibility for its content.</t>

--- a/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
+++ b/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$37</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="289">
   <si>
     <t>Path</t>
   </si>
@@ -334,7 +334,7 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>recorderRelatedPerson</t>
+    <t>authorRelatedPerson</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/author-related-person}
@@ -352,7 +352,14 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-04:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>recorderRelatedPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-dh-ait-04:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}
+</t>
   </si>
   <si>
     <t>AllergyIntolerance.modifierExtension</t>
@@ -1081,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AL37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2104,7 +2111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>94</v>
       </c>
@@ -2122,7 +2129,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>42</v>
@@ -2212,13 +2219,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2228,10 +2237,10 @@
         <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>42</v>
@@ -2240,14 +2249,12 @@
         <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2296,7 +2303,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -2308,10 +2315,10 @@
         <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>42</v>
@@ -2322,11 +2329,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2339,21 +2346,23 @@
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2402,7 +2411,7 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2417,18 +2426,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2439,29 +2448,27 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2486,13 +2493,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2510,33 +2517,33 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AF13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2544,7 +2551,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
@@ -2562,13 +2569,13 @@
         <v>69</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2594,13 +2601,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="Y14" t="s" s="2">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2618,25 +2625,25 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
@@ -2644,15 +2651,15 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>50</v>
@@ -2661,7 +2668,7 @@
         <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>51</v>
@@ -2670,13 +2677,13 @@
         <v>69</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2702,13 +2709,13 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -2726,47 +2733,47 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>42</v>
@@ -2778,13 +2785,13 @@
         <v>69</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2810,13 +2817,13 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
@@ -2834,44 +2841,44 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -2886,13 +2893,13 @@
         <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2918,13 +2925,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -2942,47 +2949,47 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>42</v>
@@ -2991,16 +2998,16 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3026,13 +3033,13 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3050,7 +3057,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3065,22 +3072,22 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3099,15 +3106,17 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3132,13 +3141,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3156,10 +3165,10 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3171,26 +3180,26 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3202,16 +3211,16 @@
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3262,10 +3271,10 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>50</v>
@@ -3277,18 +3286,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>42</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3302,7 +3311,7 @@
         <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
@@ -3311,13 +3320,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3368,7 +3377,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3383,22 +3392,22 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>196</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3408,7 +3417,7 @@
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>42</v>
@@ -3417,13 +3426,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3474,7 +3483,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3489,22 +3498,22 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3514,26 +3523,24 @@
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3582,7 +3589,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3597,22 +3604,22 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3628,19 +3635,19 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3690,7 +3697,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3705,18 +3712,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3727,10 +3734,10 @@
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>42</v>
@@ -3739,16 +3746,16 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3798,13 +3805,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -3813,7 +3820,7 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -3824,7 +3831,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3847,15 +3854,17 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -3904,7 +3913,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3916,10 +3925,10 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
@@ -3928,9 +3937,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3941,10 +3950,10 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>
@@ -3953,13 +3962,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4010,22 +4019,22 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>42</v>
@@ -4036,18 +4045,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4059,17 +4068,15 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4118,13 +4125,13 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
@@ -4133,7 +4140,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -4144,11 +4151,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4161,22 +4168,22 @@
         <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4226,7 +4233,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4241,7 +4248,7 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>42</v>
@@ -4250,41 +4257,41 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4310,13 +4317,13 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4334,13 +4341,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4349,7 +4356,7 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4360,18 +4367,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>51</v>
@@ -4383,16 +4390,16 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4418,13 +4425,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4442,14 +4449,14 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG31" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4457,32 +4464,32 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
@@ -4491,16 +4498,16 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4526,13 +4533,13 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4550,13 +4557,13 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
@@ -4565,22 +4572,22 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4599,15 +4606,17 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4656,7 +4665,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4671,18 +4680,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4705,17 +4714,15 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4740,13 +4747,13 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -4764,7 +4771,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4779,18 +4786,18 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4813,16 +4820,16 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4848,13 +4855,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -4872,7 +4879,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4887,7 +4894,7 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>282</v>
+        <v>163</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -4898,7 +4905,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4909,7 +4916,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -4921,16 +4928,16 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4956,13 +4963,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -4980,32 +4987,140 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AH36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="G37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL36">
+  <autoFilter ref="A1:AL37">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5015,7 +5130,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI36">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
+++ b/output/SharedMedicinesList/allergyintolerance-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="287">
   <si>
     <t>Path</t>
   </si>
@@ -352,14 +352,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>recorderRelatedPerson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-dh-ait-04:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}
-</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-ait-04:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}</t>
   </si>
   <si>
     <t>AllergyIntolerance.modifierExtension</t>
@@ -1088,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1098,7 +1091,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.07421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2111,7 +2104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>94</v>
       </c>
@@ -2129,7 +2122,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>42</v>
@@ -2219,15 +2212,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>107</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2237,10 +2228,10 @@
         <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>42</v>
@@ -2249,12 +2240,14 @@
         <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2303,7 +2296,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -2315,10 +2308,10 @@
         <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>42</v>
@@ -2329,11 +2322,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2346,23 +2339,21 @@
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2411,7 +2402,7 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2426,18 +2417,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2448,27 +2439,29 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2493,13 +2486,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2517,33 +2510,33 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2551,7 +2544,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
@@ -2569,13 +2562,13 @@
         <v>69</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2601,49 +2594,49 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH14" t="s" s="2">
+      <c r="AI14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
@@ -2651,15 +2644,15 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>50</v>
@@ -2668,7 +2661,7 @@
         <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>51</v>
@@ -2677,13 +2670,13 @@
         <v>69</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2709,71 +2702,71 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="AF15" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>42</v>
@@ -2785,13 +2778,13 @@
         <v>69</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2817,68 +2810,68 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -2893,13 +2886,13 @@
         <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2925,13 +2918,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -2949,13 +2942,13 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -2964,32 +2957,32 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>42</v>
@@ -2998,16 +2991,16 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3033,13 +3026,13 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3057,7 +3050,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3072,22 +3065,22 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3106,17 +3099,15 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3141,13 +3132,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3165,10 +3156,10 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3180,26 +3171,26 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3211,16 +3202,16 @@
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3271,10 +3262,10 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>50</v>
@@ -3286,18 +3277,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>185</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3311,7 +3302,7 @@
         <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
@@ -3320,13 +3311,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3377,7 +3368,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3392,22 +3383,22 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>42</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3417,7 +3408,7 @@
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>42</v>
@@ -3426,13 +3417,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3483,7 +3474,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3498,22 +3489,22 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3523,24 +3514,26 @@
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3589,7 +3582,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3604,22 +3597,22 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3635,19 +3628,19 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3697,7 +3690,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3712,18 +3705,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3734,10 +3727,10 @@
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>42</v>
@@ -3746,16 +3739,16 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3805,13 +3798,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -3820,7 +3813,7 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -3831,7 +3824,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3854,17 +3847,15 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -3913,7 +3904,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3925,10 +3916,10 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
@@ -3937,9 +3928,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3950,10 +3941,10 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>
@@ -3962,13 +3953,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4019,22 +4010,22 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>42</v>
@@ -4045,18 +4036,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4068,15 +4059,17 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4125,13 +4118,13 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
@@ -4140,7 +4133,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -4151,11 +4144,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4168,22 +4161,22 @@
         <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4233,7 +4226,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4248,7 +4241,7 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>42</v>
@@ -4257,41 +4250,41 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4317,13 +4310,13 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4341,13 +4334,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4356,7 +4349,7 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4367,18 +4360,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>51</v>
@@ -4390,16 +4383,16 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4425,37 +4418,37 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="AF31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
@@ -4464,32 +4457,32 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
@@ -4498,16 +4491,16 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4533,37 +4526,37 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AF32" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
@@ -4572,22 +4565,22 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4606,17 +4599,15 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4665,7 +4656,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4680,18 +4671,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>42</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4714,15 +4705,17 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4747,13 +4740,13 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -4771,7 +4764,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4786,18 +4779,18 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4820,16 +4813,16 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4855,32 +4848,32 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
@@ -4894,7 +4887,7 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>163</v>
+        <v>282</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -4905,7 +4898,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4916,7 +4909,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -4928,16 +4921,16 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4963,37 +4956,37 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
@@ -5002,125 +4995,17 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL37" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL37">
+  <autoFilter ref="A1:AL36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5130,7 +5015,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
